--- a/DOWNLOADS/PRODUTOS/produtos_o4-mini.xlsx
+++ b/DOWNLOADS/PRODUTOS/produtos_o4-mini.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c062993eaa45f7e/.vscode/arte_/sheets/PRODUTOS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c062993eaa45f7e/.vscode/arte_/DOWNLOADS/PRODUTOS/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{017E2182-4BE9-4B6D-8682-E0F739335A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -4317,8 +4317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80933186-8700-4107-85F6-36F004999ECC}">
   <dimension ref="A1:D640"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
